--- a/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>671,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>619,61%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,78; 4,91</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 4,18</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 3,88</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,79; 751,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 3,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 1,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 0,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 1,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,35; 642,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,37; 134,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,71; 98,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,87; 242,96</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,34; 2,04</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 3,14</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 1,96</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 2,94</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,75; 732,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,03; 198,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,72; 88,33</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,25%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 3,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 2,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 2,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 2,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,96; 372,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,13; 88,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,5; 187,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,86; 2557,21</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>455,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>200,23%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,45; 5,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 3,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 4,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 3,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,76; 155,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,03; 1014,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,98; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-1,01; 3,9</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 2,28</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 1,42</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,93</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-60,79; 832,48</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,72; 98,98</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 0,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 1,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 3,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,36; 38,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,44; 199,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,07; 74,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,28; 98,65</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,74%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 0,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 1,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 2,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 3,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,91; 16,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,09; 49,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,88; 328,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,36; 1147,09</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,77%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 0,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 1,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 76,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,93; 39,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,1; 58,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 92,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>619,61%</t>
+          <t>724,26%</t>
         </is>
       </c>
     </row>
@@ -673,27 +673,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-2,87; 5,81</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 4,18</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 4,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 4,18</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 3,88</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,23; 176,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>39,51%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,95</t>
+          <t>-1,33; 1,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,87; 242,96</t>
+          <t>-52,5; 255,06</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,94</t>
+          <t>-3,24; 2,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,72; 88,33</t>
+          <t>-47,91; 87,09</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>-10,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>26,12%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,85</t>
+          <t>-3,26; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,07</t>
+          <t>-2,12; 1,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 88,74</t>
+          <t>-69,24; 159,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,86; 2557,21</t>
+          <t>-93,24; 1708,85</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>200,23%</t>
+          <t>203,1%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,07</t>
+          <t>-0,25; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-54,98; —</t>
+          <t>-55,73; —</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,93</t>
+          <t>-2,79; 2,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 98,98</t>
+          <t>-47,55; 100,55</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,7</t>
+          <t>-3,7; 3,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 98,65</t>
+          <t>-54,67; 86,02</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>113,74%</t>
+          <t>163,26%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,97</t>
+          <t>-0,21; 3,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 1147,09</t>
+          <t>-49,24; 1612,84</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>40,4%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,75</t>
+          <t>-0,02; 1,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 92,03</t>
+          <t>-1,11; 97,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,91</t>
+          <t>0,77; 5,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,81</t>
+          <t>-2,77; 6,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,18</t>
+          <t>-0,87; 4,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,46</t>
+          <t>0,69; 4,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,23; 176,55</t>
+          <t>-36,12; 189,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 751,19</t>
+          <t>-49,86; 943,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,68</t>
+          <t>0,17; 3,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,04</t>
+          <t>-2,48; 1,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,83</t>
+          <t>-2,03; 1,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,98</t>
+          <t>-1,11; 2,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 642,62</t>
+          <t>-6,1; 652,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,37; 134,43</t>
+          <t>-81,0; 132,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,71; 98,24</t>
+          <t>-74,96; 154,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 255,06</t>
+          <t>-48,06; 353,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,04</t>
+          <t>-0,57; 1,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,14</t>
+          <t>-0,92; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,96</t>
+          <t>-2,7; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,91</t>
+          <t>-3,44; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,75; 732,24</t>
+          <t>-53,03; 630,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 198,94</t>
+          <t>-76,84; 140,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 87,09</t>
+          <t>-48,94; 89,16</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,73</t>
+          <t>-0,94; 3,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,45</t>
+          <t>-3,34; 2,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,45</t>
+          <t>-1,94; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,51</t>
+          <t>-2,15; 1,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 372,54</t>
+          <t>-36,76; 352,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,24; 159,67</t>
+          <t>-70,97; 118,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,5; 187,52</t>
+          <t>-59,91; 234,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-93,24; 1708,85</t>
+          <t>-90,53; 1748,06</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,35</t>
+          <t>0,14; 5,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,96</t>
+          <t>-4,89; 4,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,44</t>
+          <t>-1,68; 4,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,05</t>
+          <t>-0,22; 3,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,24 +1093,24 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,76; 155,28</t>
+          <t>-65,6; 197,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-84,03; 1014,76</t>
+          <t>-79,74; 754,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,73; —</t>
+          <t>-40,66; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,9</t>
+          <t>-1,1; 3,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,28</t>
+          <t>-2,08; 2,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,42</t>
+          <t>-2,11; 1,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,93</t>
+          <t>-2,76; 3,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,79; 832,48</t>
+          <t>-64,19; 759,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 100,55</t>
+          <t>-47,98; 119,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,36</t>
+          <t>-2,28; 0,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,85</t>
+          <t>-0,98; 1,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,56</t>
+          <t>-2,59; 1,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,23</t>
+          <t>-3,38; 3,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 38,03</t>
+          <t>-84,1; 37,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 199,63</t>
+          <t>-45,54; 251,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 74,18</t>
+          <t>-58,46; 67,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-54,67; 86,02</t>
+          <t>-50,97; 76,75</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,38</t>
+          <t>-3,22; 0,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,35</t>
+          <t>-2,77; 1,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,39</t>
+          <t>-0,18; 2,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,72</t>
+          <t>-0,13; 3,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 16,77</t>
+          <t>-67,3; 17,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 49,22</t>
+          <t>-54,99; 49,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 328,05</t>
+          <t>-15,81; 327,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,24; 1612,84</t>
+          <t>-46,2; 1668,83</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,15</t>
+          <t>-0,29; 1,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,93</t>
+          <t>-0,82; 0,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,99</t>
+          <t>-0,47; 0,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,75</t>
+          <t>0,01; 1,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 76,88</t>
+          <t>-13,36; 80,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 39,13</t>
+          <t>-25,03; 37,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 58,03</t>
+          <t>-20,14; 55,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 97,52</t>
+          <t>0,25; 106,98</t>
         </is>
       </c>
     </row>
